--- a/current.xlsx
+++ b/current.xlsx
@@ -19,8 +19,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>BR</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Why are these two (Pilatus) occupying precious POE ports?
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="309">
   <si>
     <t xml:space="preserve">Switch</t>
   </si>
@@ -133,7 +158,7 @@
     <t xml:space="preserve">10.68.40.29</t>
   </si>
   <si>
-    <t xml:space="preserve">why is this mac showing up?</t>
+    <t xml:space="preserve">second Pilatus interface, should be xf06bm-Pilatus-data?</t>
   </si>
   <si>
     <t xml:space="preserve">1/1/6</t>
@@ -775,7 +800,10 @@
     <t xml:space="preserve">xf06bm-ioc-xspress3</t>
   </si>
   <si>
-    <t xml:space="preserve">10.68.43.31</t>
+    <t xml:space="preserve">10.68.40.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged for EPICS vlan, 10.68.43.31</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -1150,23 +1178,23 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J72" activeCellId="0" sqref="J72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K125" activeCellId="0" sqref="K125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="49.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,13 +4973,16 @@
       <c r="J124" s="3" t="s">
         <v>251</v>
       </c>
+      <c r="K124" s="0" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>67</v>
@@ -4981,7 +5012,7 @@
         <v>242</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>67</v>
@@ -5011,7 +5042,7 @@
         <v>242</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>67</v>
@@ -5041,7 +5072,7 @@
         <v>242</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>67</v>
@@ -5071,7 +5102,7 @@
         <v>242</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>67</v>
@@ -5101,7 +5132,7 @@
         <v>242</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>67</v>
@@ -5131,7 +5162,7 @@
         <v>242</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>248</v>
@@ -5149,13 +5180,13 @@
         <v>650</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,7 +5194,7 @@
         <v>242</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>248</v>
@@ -5181,13 +5212,13 @@
         <v>650</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>166</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,7 +5226,7 @@
         <v>242</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>67</v>
@@ -5225,7 +5256,7 @@
         <v>242</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>67</v>
@@ -5255,7 +5286,7 @@
         <v>242</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>67</v>
@@ -5285,7 +5316,7 @@
         <v>242</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>67</v>
@@ -5315,7 +5346,7 @@
         <v>242</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>67</v>
@@ -5345,7 +5376,7 @@
         <v>242</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>67</v>
@@ -5375,7 +5406,7 @@
         <v>242</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>67</v>
@@ -5405,7 +5436,7 @@
         <v>242</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>67</v>
@@ -5435,7 +5466,7 @@
         <v>242</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>67</v>
@@ -5465,7 +5496,7 @@
         <v>242</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>67</v>
@@ -5495,7 +5526,7 @@
         <v>242</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>67</v>
@@ -5525,7 +5556,7 @@
         <v>242</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>67</v>
@@ -5555,7 +5586,7 @@
         <v>242</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>67</v>
@@ -5585,7 +5616,7 @@
         <v>242</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>67</v>
@@ -5615,7 +5646,7 @@
         <v>242</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>67</v>
@@ -5645,7 +5676,7 @@
         <v>242</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>67</v>
@@ -5675,7 +5706,7 @@
         <v>242</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>67</v>
@@ -5705,7 +5736,7 @@
         <v>242</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>248</v>
@@ -5723,13 +5754,13 @@
         <v>652</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5737,7 +5768,7 @@
         <v>242</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>67</v>
@@ -5767,7 +5798,7 @@
         <v>242</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>67</v>
@@ -5797,7 +5828,7 @@
         <v>242</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>67</v>
@@ -5827,7 +5858,7 @@
         <v>242</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>67</v>
@@ -5857,7 +5888,7 @@
         <v>242</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>67</v>
@@ -5887,7 +5918,7 @@
         <v>242</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>67</v>
@@ -5917,7 +5948,7 @@
         <v>242</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>67</v>
@@ -5947,7 +5978,7 @@
         <v>242</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>67</v>
@@ -5977,7 +6008,7 @@
         <v>242</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>67</v>
@@ -6007,7 +6038,7 @@
         <v>242</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>67</v>
@@ -6037,7 +6068,7 @@
         <v>242</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>67</v>
@@ -6067,7 +6098,7 @@
         <v>242</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>67</v>
@@ -6088,10 +6119,10 @@
         <v>58</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,7 +6130,7 @@
         <v>242</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>67</v>
@@ -6120,10 +6151,10 @@
         <v>58</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,7 +6162,7 @@
         <v>242</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>67</v>
@@ -6152,10 +6183,10 @@
         <v>58</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,7 +6194,7 @@
         <v>242</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>67</v>
@@ -6184,10 +6215,10 @@
         <v>58</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,7 +6226,7 @@
         <v>242</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>67</v>
@@ -6225,7 +6256,7 @@
         <v>242</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>67</v>
@@ -6253,11 +6284,12 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/current.xlsx
+++ b/current.xlsx
@@ -1179,10 +1179,10 @@
   <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K125" activeCellId="0" sqref="K125"/>
+      <selection pane="topLeft" activeCell="H127" activeCellId="0" sqref="H127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
@@ -4962,7 +4962,7 @@
         <v>22</v>
       </c>
       <c r="G124" s="3" t="n">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>249</v>

--- a/current.xlsx
+++ b/current.xlsx
@@ -680,7 +680,7 @@
     <t xml:space="preserve">10.68.42.103</t>
   </si>
   <si>
-    <t xml:space="preserve">0050.c2c0.0495</t>
+    <t xml:space="preserve">0050.c2c0.901a</t>
   </si>
   <si>
     <t xml:space="preserve">xf06bm-mc4</t>
@@ -1070,7 +1070,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1097,6 +1097,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1178,11 +1182,11 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H127" activeCellId="0" sqref="H127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H77" activeCellId="0" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
@@ -3568,7 +3572,7 @@
       <c r="G76" s="3" t="n">
         <v>652</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="7" t="s">
         <v>211</v>
       </c>
       <c r="I76" s="3" t="s">

--- a/current.xlsx
+++ b/current.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A8" authorId="0">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="315">
   <si>
     <t xml:space="preserve">Switch</t>
   </si>
@@ -410,9 +410,15 @@
     <t xml:space="preserve">1/1/28</t>
   </si>
   <si>
+    <t xml:space="preserve">0050:c2c0:2041</t>
+  </si>
+  <si>
     <t xml:space="preserve">xf06bm-mc14</t>
   </si>
   <si>
+    <t xml:space="preserve">10.68.42.114</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/1/29</t>
   </si>
   <si>
@@ -470,12 +476,21 @@
     <t xml:space="preserve">xf06bm-biologic</t>
   </si>
   <si>
+    <t xml:space="preserve">10.68.42.143</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/1/34</t>
   </si>
   <si>
+    <t xml:space="preserve">0090:e87e:342a</t>
+  </si>
+  <si>
     <t xml:space="preserve">xf06bm-tsrv7</t>
   </si>
   <si>
+    <t xml:space="preserve">10.68.42.77</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/1/35</t>
   </si>
   <si>
@@ -545,9 +560,15 @@
     <t xml:space="preserve">1/1/40</t>
   </si>
   <si>
+    <t xml:space="preserve">c465:16de:63dd</t>
+  </si>
+  <si>
     <t xml:space="preserve">xf06bm-lpr1</t>
   </si>
   <si>
+    <t xml:space="preserve">10.68.40.191</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/1/41</t>
   </si>
   <si>
@@ -840,9 +861,6 @@
   </si>
   <si>
     <t xml:space="preserve">c465.16de.63dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.68.40.191</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
@@ -1182,11 +1200,11 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H77" activeCellId="0" sqref="H77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
@@ -2200,13 +2218,13 @@
         <v>120</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>22</v>
@@ -2215,13 +2233,13 @@
         <v>652</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>12</v>
@@ -2247,13 +2265,13 @@
         <v>652</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
@@ -2279,13 +2297,13 @@
         <v>652</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
@@ -2311,13 +2329,13 @@
         <v>650</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,7 +2343,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
@@ -2343,13 +2361,13 @@
         <v>653</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>12</v>
@@ -2375,13 +2393,13 @@
         <v>650</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>67</v>
@@ -2410,10 +2428,10 @@
         <v>58</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,16 +2439,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>22</v>
@@ -2439,13 +2457,13 @@
         <v>652</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,7 +2471,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>12</v>
@@ -2471,13 +2489,13 @@
         <v>652</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
@@ -2503,13 +2521,13 @@
         <v>652</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>12</v>
@@ -2535,13 +2553,13 @@
         <v>653</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +2567,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>12</v>
@@ -2567,13 +2585,13 @@
         <v>652</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
@@ -2599,13 +2617,13 @@
         <v>650</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,7 +2631,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>12</v>
@@ -2631,13 +2649,13 @@
         <v>653</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,7 +2663,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>67</v>
@@ -2663,13 +2681,13 @@
         <v>650</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>67</v>
@@ -2698,7 +2716,7 @@
         <v>58</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>59</v>
@@ -2709,7 +2727,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>12</v>
@@ -2727,13 +2745,13 @@
         <v>650</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>12</v>
@@ -2759,13 +2777,13 @@
         <v>653</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>12</v>
@@ -2791,13 +2809,13 @@
         <v>650</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>12</v>
@@ -2826,10 +2844,10 @@
         <v>58</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>67</v>
@@ -2867,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>12</v>
@@ -2885,13 +2903,13 @@
         <v>653</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,7 +2917,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>12</v>
@@ -2917,13 +2935,13 @@
         <v>650</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,7 +2949,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>12</v>
@@ -2949,13 +2967,13 @@
         <v>653</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,7 +2981,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>67</v>
@@ -2993,7 +3011,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>67</v>
@@ -3023,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>67</v>
@@ -3053,7 +3071,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>67</v>
@@ -3083,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>67</v>
@@ -3154,7 +3172,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>26</v>
@@ -3184,7 +3202,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>30</v>
@@ -3214,7 +3232,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>34</v>
@@ -3244,7 +3262,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>38</v>
@@ -3274,7 +3292,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>42</v>
@@ -3304,7 +3322,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>47</v>
@@ -3334,7 +3352,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>51</v>
@@ -3355,18 +3373,18 @@
         <v>651</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>57</v>
@@ -3387,18 +3405,18 @@
         <v>651</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>60</v>
@@ -3428,7 +3446,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>62</v>
@@ -3458,7 +3476,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>66</v>
@@ -3488,7 +3506,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>70</v>
@@ -3509,18 +3527,18 @@
         <v>652</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>74</v>
@@ -3541,18 +3559,18 @@
         <v>652</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>80</v>
@@ -3573,18 +3591,18 @@
         <v>652</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>84</v>
@@ -3605,18 +3623,18 @@
         <v>652</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>86</v>
@@ -3640,7 +3658,7 @@
         <v>58</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>59</v>
@@ -3648,7 +3666,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>88</v>
@@ -3669,16 +3687,16 @@
         <v>652</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>92</v>
@@ -3708,7 +3726,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>96</v>
@@ -3738,7 +3756,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>100</v>
@@ -3768,7 +3786,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>104</v>
@@ -3798,7 +3816,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>106</v>
@@ -3828,7 +3846,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>108</v>
@@ -3858,7 +3876,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>112</v>
@@ -3888,7 +3906,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>116</v>
@@ -3918,7 +3936,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>120</v>
@@ -3948,10 +3966,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>12</v>
@@ -3969,21 +3987,21 @@
         <v>652</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>12</v>
@@ -4001,21 +4019,21 @@
         <v>652</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>12</v>
@@ -4033,21 +4051,21 @@
         <v>652</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>12</v>
@@ -4065,21 +4083,21 @@
         <v>652</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>67</v>
@@ -4106,10 +4124,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>67</v>
@@ -4136,10 +4154,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>67</v>
@@ -4166,10 +4184,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>67</v>
@@ -4196,10 +4214,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>67</v>
@@ -4226,10 +4244,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>67</v>
@@ -4256,10 +4274,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>67</v>
@@ -4286,10 +4304,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>67</v>
@@ -4316,10 +4334,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>67</v>
@@ -4346,10 +4364,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>67</v>
@@ -4376,10 +4394,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>67</v>
@@ -4406,10 +4424,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>67</v>
@@ -4436,10 +4454,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>67</v>
@@ -4466,10 +4484,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>67</v>
@@ -4496,10 +4514,10 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>67</v>
@@ -4526,10 +4544,10 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>67</v>
@@ -4556,10 +4574,10 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>67</v>
@@ -4586,10 +4604,10 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>67</v>
@@ -4616,10 +4634,10 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>67</v>
@@ -4646,10 +4664,10 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>67</v>
@@ -4676,10 +4694,10 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>67</v>
@@ -4706,10 +4724,10 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>67</v>
@@ -4736,10 +4754,10 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>67</v>
@@ -4766,10 +4784,10 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>67</v>
@@ -4828,10 +4846,10 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>67</v>
@@ -4858,10 +4876,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>67</v>
@@ -4888,10 +4906,10 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>67</v>
@@ -4918,10 +4936,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>67</v>
@@ -4948,13 +4966,13 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>13</v>
@@ -4969,24 +4987,24 @@
         <v>650</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>67</v>
@@ -5013,10 +5031,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>67</v>
@@ -5043,10 +5061,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>67</v>
@@ -5073,10 +5091,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>67</v>
@@ -5103,10 +5121,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>67</v>
@@ -5133,10 +5151,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>67</v>
@@ -5163,13 +5181,13 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>13</v>
@@ -5184,24 +5202,24 @@
         <v>650</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>13</v>
@@ -5216,21 +5234,21 @@
         <v>650</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>67</v>
@@ -5257,10 +5275,10 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>67</v>
@@ -5287,10 +5305,10 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>67</v>
@@ -5317,10 +5335,10 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>67</v>
@@ -5347,10 +5365,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>67</v>
@@ -5377,10 +5395,10 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>67</v>
@@ -5407,10 +5425,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>67</v>
@@ -5437,10 +5455,10 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>67</v>
@@ -5467,10 +5485,10 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>67</v>
@@ -5497,10 +5515,10 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>67</v>
@@ -5527,10 +5545,10 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>67</v>
@@ -5557,10 +5575,10 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>67</v>
@@ -5587,10 +5605,10 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>67</v>
@@ -5617,10 +5635,10 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>67</v>
@@ -5647,10 +5665,10 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>67</v>
@@ -5677,10 +5695,10 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>67</v>
@@ -5707,10 +5725,10 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>67</v>
@@ -5737,13 +5755,13 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>13</v>
@@ -5758,21 +5776,21 @@
         <v>652</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>67</v>
@@ -5799,10 +5817,10 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>67</v>
@@ -5829,10 +5847,10 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>67</v>
@@ -5859,10 +5877,10 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>67</v>
@@ -5889,10 +5907,10 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>67</v>
@@ -5919,10 +5937,10 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>67</v>
@@ -5949,10 +5967,10 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>67</v>
@@ -5979,10 +5997,10 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>67</v>
@@ -6009,10 +6027,10 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>67</v>
@@ -6039,10 +6057,10 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>67</v>
@@ -6069,10 +6087,10 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>67</v>
@@ -6099,10 +6117,10 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>67</v>
@@ -6123,18 +6141,18 @@
         <v>58</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>67</v>
@@ -6155,18 +6173,18 @@
         <v>58</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>67</v>
@@ -6187,18 +6205,18 @@
         <v>58</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>67</v>
@@ -6219,18 +6237,18 @@
         <v>58</v>
       </c>
       <c r="I165" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J165" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>67</v>
@@ -6257,10 +6275,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>67</v>
@@ -6288,7 +6306,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/current.xlsx
+++ b/current.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="326">
   <si>
     <t xml:space="preserve">Switch</t>
   </si>
@@ -704,6 +704,9 @@
     <t xml:space="preserve">0090.e88d.7580</t>
   </si>
   <si>
+    <t xml:space="preserve">Xf06bm-tsrv8</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.68.42.78</t>
   </si>
   <si>
@@ -716,6 +719,9 @@
     <t xml:space="preserve">10.68.42.71</t>
   </si>
   <si>
+    <t xml:space="preserve">Rack A Moxa</t>
+  </si>
+  <si>
     <t xml:space="preserve">0090.e85a.56d2</t>
   </si>
   <si>
@@ -911,13 +917,58 @@
     <t xml:space="preserve">32</t>
   </si>
   <si>
+    <t xml:space="preserve">0090.e895.dbd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xf06bm-tsrv9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack B Moxa</t>
+  </si>
+  <si>
     <t xml:space="preserve">33</t>
   </si>
   <si>
+    <t xml:space="preserve">0090.e896.5e24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xf06bm-tsrv10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68.42.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack C1 Moxa</t>
+  </si>
+  <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
+    <t xml:space="preserve">0090.e896.5fc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xf06bm-tsrv11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68.42.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack C2 Moxa</t>
+  </si>
+  <si>
     <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0090.e895.dc17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xf06bm-tsrv12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68.42.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack C3 Moxa</t>
   </si>
   <si>
     <t xml:space="preserve">36</t>
@@ -1182,11 +1233,11 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H77" activeCellId="0" sqref="H77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K155" activeCellId="0" sqref="K155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
@@ -1195,7 +1246,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="49.18"/>
@@ -3671,9 +3722,11 @@
       <c r="H79" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I79" s="3"/>
+      <c r="I79" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="J79" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,13 +4022,16 @@
         <v>652</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,13 +4057,13 @@
         <v>652</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,13 +4089,13 @@
         <v>652</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,13 +4121,13 @@
         <v>652</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,7 +4555,7 @@
         <v>198</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>67</v>
@@ -4529,7 +4585,7 @@
         <v>198</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>67</v>
@@ -4559,7 +4615,7 @@
         <v>198</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>67</v>
@@ -4589,7 +4645,7 @@
         <v>198</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>67</v>
@@ -4619,7 +4675,7 @@
         <v>198</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>67</v>
@@ -4649,7 +4705,7 @@
         <v>198</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>67</v>
@@ -4679,7 +4735,7 @@
         <v>198</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>67</v>
@@ -4709,7 +4765,7 @@
         <v>198</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>67</v>
@@ -4739,7 +4795,7 @@
         <v>198</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>67</v>
@@ -4769,7 +4825,7 @@
         <v>198</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>67</v>
@@ -4828,10 +4884,10 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>67</v>
@@ -4858,10 +4914,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>67</v>
@@ -4888,10 +4944,10 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>67</v>
@@ -4918,10 +4974,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>67</v>
@@ -4948,13 +5004,13 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>13</v>
@@ -4969,24 +5025,24 @@
         <v>650</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>67</v>
@@ -5013,10 +5069,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>67</v>
@@ -5043,10 +5099,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>67</v>
@@ -5073,10 +5129,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>67</v>
@@ -5103,10 +5159,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>67</v>
@@ -5133,10 +5189,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>67</v>
@@ -5163,13 +5219,13 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>13</v>
@@ -5184,24 +5240,24 @@
         <v>650</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>13</v>
@@ -5216,21 +5272,21 @@
         <v>650</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>166</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>67</v>
@@ -5257,10 +5313,10 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>67</v>
@@ -5287,10 +5343,10 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>67</v>
@@ -5317,10 +5373,10 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>67</v>
@@ -5347,10 +5403,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>67</v>
@@ -5377,10 +5433,10 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>67</v>
@@ -5407,10 +5463,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>67</v>
@@ -5437,10 +5493,10 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>67</v>
@@ -5467,10 +5523,10 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>67</v>
@@ -5497,10 +5553,10 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>67</v>
@@ -5527,10 +5583,10 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>67</v>
@@ -5557,10 +5613,10 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>67</v>
@@ -5587,10 +5643,10 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>67</v>
@@ -5617,10 +5673,10 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>67</v>
@@ -5647,10 +5703,10 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>67</v>
@@ -5677,10 +5733,10 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>67</v>
@@ -5707,10 +5763,10 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>67</v>
@@ -5737,13 +5793,13 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>13</v>
@@ -5758,21 +5814,21 @@
         <v>652</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>67</v>
@@ -5790,19 +5846,24 @@
         <v>652</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I151" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="J151" s="3" t="s">
-        <v>59</v>
+        <v>220</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>67</v>
@@ -5820,19 +5881,24 @@
         <v>652</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I152" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="J152" s="3" t="s">
-        <v>59</v>
+        <v>296</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>67</v>
@@ -5850,19 +5916,24 @@
         <v>652</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I153" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="J153" s="3" t="s">
-        <v>59</v>
+        <v>301</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>67</v>
@@ -5880,19 +5951,24 @@
         <v>652</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I154" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="J154" s="3" t="s">
-        <v>59</v>
+        <v>306</v>
+      </c>
+      <c r="K154" s="0" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>67</v>
@@ -5919,10 +5995,10 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>67</v>
@@ -5949,10 +6025,10 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>67</v>
@@ -5979,10 +6055,10 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>67</v>
@@ -6009,10 +6085,10 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>67</v>
@@ -6039,10 +6115,10 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>67</v>
@@ -6069,10 +6145,10 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>67</v>
@@ -6099,10 +6175,10 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>67</v>
@@ -6123,18 +6199,18 @@
         <v>58</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>67</v>
@@ -6155,18 +6231,18 @@
         <v>58</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>67</v>
@@ -6187,18 +6263,18 @@
         <v>58</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>67</v>
@@ -6219,18 +6295,18 @@
         <v>58</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>67</v>
@@ -6257,10 +6333,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>67</v>

--- a/current.xlsx
+++ b/current.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="337">
   <si>
     <t xml:space="preserve">Switch</t>
   </si>
@@ -956,49 +956,46 @@
     <t xml:space="preserve">0090.e895.dbd1</t>
   </si>
   <si>
+    <t xml:space="preserve">Rack B Moxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0090.e896.5e24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Xf06bm-tsrv9</t>
   </si>
   <si>
-    <t xml:space="preserve">Rack B Moxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0090.e896.5e24</t>
+    <t xml:space="preserve">10.68.42.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack C1 Moxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0090.e896.5fc1</t>
   </si>
   <si>
     <t xml:space="preserve">Xf06bm-tsrv10</t>
   </si>
   <si>
-    <t xml:space="preserve">10.68.42.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack C1 Moxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0090.e896.5fc1</t>
+    <t xml:space="preserve">10.68.42.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack C2 Moxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0090.e895.dc17</t>
   </si>
   <si>
     <t xml:space="preserve">Xf06bm-tsrv11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.68.42.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack C2 Moxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0090.e895.dc17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xf06bm-tsrv12</t>
   </si>
   <si>
     <t xml:space="preserve">10.68.42.81</t>
@@ -1269,11 +1266,11 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K39" activeCellId="0" sqref="K39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I154" activeCellId="0" sqref="I154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
@@ -5909,13 +5906,13 @@
         <v>302</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>228</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,34 +5920,34 @@
         <v>256</v>
       </c>
       <c r="B152" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" s="3" t="n">
+        <v>652</v>
+      </c>
+      <c r="H152" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" s="3" t="n">
-        <v>652</v>
-      </c>
-      <c r="H152" s="3" t="s">
+      <c r="I152" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I152" s="3" t="s">
+      <c r="J152" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="K152" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="K152" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,34 +5955,34 @@
         <v>256</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="3" t="n">
+        <v>652</v>
+      </c>
+      <c r="H153" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="3" t="n">
-        <v>652</v>
-      </c>
-      <c r="H153" s="3" t="s">
+      <c r="I153" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="I153" s="3" t="s">
+      <c r="J153" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="K153" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="K153" s="0" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,34 +5990,34 @@
         <v>256</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" s="3" t="n">
+        <v>652</v>
+      </c>
+      <c r="H154" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" s="3" t="n">
-        <v>652</v>
-      </c>
-      <c r="H154" s="3" t="s">
+      <c r="I154" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="J154" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J154" s="3" t="s">
+      <c r="K154" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="K154" s="0" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6028,7 +6025,7 @@
         <v>256</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>69</v>
@@ -6058,7 +6055,7 @@
         <v>256</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>69</v>
@@ -6088,7 +6085,7 @@
         <v>256</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>69</v>
@@ -6118,7 +6115,7 @@
         <v>256</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>69</v>
@@ -6148,7 +6145,7 @@
         <v>256</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>69</v>
@@ -6178,7 +6175,7 @@
         <v>256</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>69</v>
@@ -6208,7 +6205,7 @@
         <v>256</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>69</v>
@@ -6238,7 +6235,7 @@
         <v>256</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>69</v>
@@ -6259,10 +6256,10 @@
         <v>60</v>
       </c>
       <c r="I162" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J162" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="J162" s="5" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,7 +6267,7 @@
         <v>256</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>69</v>
@@ -6291,10 +6288,10 @@
         <v>60</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6302,7 +6299,7 @@
         <v>256</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>69</v>
@@ -6323,10 +6320,10 @@
         <v>60</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,7 +6331,7 @@
         <v>256</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>69</v>
@@ -6355,10 +6352,10 @@
         <v>60</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6366,7 +6363,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>69</v>
@@ -6396,7 +6393,7 @@
         <v>256</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>69</v>

--- a/current.xlsx
+++ b/current.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">10.68.40.29</t>
   </si>
   <si>
-    <t xml:space="preserve">second Pilatus interface, should be xf06bm-Pilatus-data?</t>
+    <t xml:space="preserve">pre-reIP second Pilatus interface, should not be active</t>
   </si>
   <si>
     <t xml:space="preserve">1/1/6</t>
@@ -1266,11 +1266,11 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I154" activeCellId="0" sqref="I154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>

--- a/current.xlsx
+++ b/current.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="338">
   <si>
     <t xml:space="preserve">Switch</t>
   </si>
@@ -1031,13 +1031,16 @@
     <t xml:space="preserve">pylon 2.2</t>
   </si>
   <si>
-    <t xml:space="preserve">DHCP port</t>
-  </si>
-  <si>
     <t xml:space="preserve">44</t>
   </si>
   <si>
-    <t xml:space="preserve">pylon 1.6</t>
+    <t xml:space="preserve">4e3b:d96d:7b8f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xf06bm-ic1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68.43.196</t>
   </si>
   <si>
     <t xml:space="preserve">45</t>
@@ -1266,11 +1269,11 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J164" activeCellId="0" sqref="J164:J165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
@@ -6258,8 +6261,8 @@
       <c r="I162" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="J162" s="5" t="s">
-        <v>328</v>
+      <c r="J162" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6267,7 +6270,7 @@
         <v>256</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>69</v>
@@ -6284,14 +6287,14 @@
       <c r="G163" s="3" t="n">
         <v>653</v>
       </c>
-      <c r="H163" s="3" t="s">
-        <v>60</v>
+      <c r="H163" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>330</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,7 +6302,7 @@
         <v>256</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>69</v>
@@ -6320,10 +6323,10 @@
         <v>60</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="J164" s="5" t="s">
-        <v>328</v>
+        <v>333</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6331,7 +6334,7 @@
         <v>256</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>69</v>
@@ -6352,10 +6355,10 @@
         <v>60</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>328</v>
+        <v>335</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,7 +6366,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>69</v>
@@ -6393,7 +6396,7 @@
         <v>256</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>69</v>
@@ -6420,7 +6423,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/current.xlsx
+++ b/current.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="339">
   <si>
     <t xml:space="preserve">Switch</t>
   </si>
@@ -311,12 +311,18 @@
     <t xml:space="preserve">xf06bm-cam7</t>
   </si>
   <si>
+    <t xml:space="preserve">10.68.41.47</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/1/18</t>
   </si>
   <si>
     <t xml:space="preserve">xf06bm-cam4</t>
   </si>
   <si>
+    <t xml:space="preserve">10.68.41.44</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/1/19</t>
   </si>
   <si>
@@ -380,7 +386,7 @@
     <t xml:space="preserve">1/1/25</t>
   </si>
   <si>
-    <t xml:space="preserve">0050.c2c0.203f</t>
+    <t xml:space="preserve">0050:c2c0:2041</t>
   </si>
   <si>
     <t xml:space="preserve">xf06bm-mc11</t>
@@ -416,9 +422,6 @@
     <t xml:space="preserve">1/1/28</t>
   </si>
   <si>
-    <t xml:space="preserve">0050:c2c0:2041</t>
-  </si>
-  <si>
     <t xml:space="preserve">xf06bm-mc14</t>
   </si>
   <si>
@@ -599,7 +602,7 @@
     <t xml:space="preserve">1/1/43</t>
   </si>
   <si>
-    <t xml:space="preserve">001e.c968.a205</t>
+    <t xml:space="preserve">0442:1ae7:dd2a</t>
   </si>
   <si>
     <t xml:space="preserve">xf06bm-ws2</t>
@@ -632,7 +635,7 @@
     <t xml:space="preserve">1/1/46</t>
   </si>
   <si>
-    <t xml:space="preserve">0cc4.7acc.46cb</t>
+    <t xml:space="preserve">0cc4.7acc.4b1a</t>
   </si>
   <si>
     <t xml:space="preserve">xf06bm-ws1</t>
@@ -641,9 +644,6 @@
     <t xml:space="preserve">10.68.40.221</t>
   </si>
   <si>
-    <t xml:space="preserve">0cc4.7acc.4b1a</t>
-  </si>
-  <si>
     <t xml:space="preserve">xf06bm-ws1-653</t>
   </si>
   <si>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">DM2 Moxa</t>
   </si>
   <si>
-    <t xml:space="preserve">4020.1180.0802</t>
+    <t xml:space="preserve">0090:e855:37b8</t>
   </si>
   <si>
     <t xml:space="preserve">xf06bm-tsrv3</t>
@@ -953,55 +953,58 @@
     <t xml:space="preserve">32</t>
   </si>
   <si>
-    <t xml:space="preserve">0090.e895.dbd1</t>
+    <t xml:space="preserve">0090:e889:9afd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xf06bm-tsrv12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68.42.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack C3 Moxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0090:e896:5fc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xf06bm-tsrv11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68.42.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack C2 Moxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0090:e896:5e24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xf06bm-tsrv10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68.42.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack C1 Moxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0090:e88d:755b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xf06bm-tsrv9</t>
   </si>
   <si>
     <t xml:space="preserve">Rack B Moxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0090.e896.5e24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xf06bm-tsrv9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.68.42.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack C1 Moxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0090.e896.5fc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xf06bm-tsrv10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.68.42.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack C2 Moxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0090.e895.dc17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xf06bm-tsrv11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.68.42.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack C3 Moxa</t>
   </si>
   <si>
     <t xml:space="preserve">36</t>
@@ -1269,11 +1272,11 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J164" activeCellId="0" sqref="J164:J165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
@@ -1284,7 +1287,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="49.18"/>
   </cols>
   <sheetData>
@@ -1962,7 +1965,7 @@
         <v>87</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>69</v>
@@ -1991,10 +1994,10 @@
         <v>60</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
@@ -2020,13 +2023,13 @@
         <v>651</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
@@ -2052,13 +2055,13 @@
         <v>652</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
@@ -2084,13 +2087,13 @@
         <v>652</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
@@ -2116,13 +2119,13 @@
         <v>652</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>69</v>
@@ -2151,7 +2154,7 @@
         <v>60</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>61</v>
@@ -2162,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>69</v>
@@ -2183,7 +2186,7 @@
         <v>60</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>61</v>
@@ -2194,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
@@ -2212,13 +2215,13 @@
         <v>652</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,7 +2229,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
@@ -2244,13 +2247,13 @@
         <v>652</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
@@ -2276,13 +2279,13 @@
         <v>652</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
@@ -2308,13 +2311,13 @@
         <v>652</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,7 +2325,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>12</v>
@@ -2340,16 +2343,16 @@
         <v>652</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,7 +2360,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
@@ -2375,13 +2378,13 @@
         <v>652</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,7 +2392,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
@@ -2407,13 +2410,13 @@
         <v>650</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
@@ -2439,13 +2442,13 @@
         <v>653</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,7 +2456,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>12</v>
@@ -2471,13 +2474,13 @@
         <v>650</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>69</v>
@@ -2506,7 +2509,7 @@
         <v>60</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>61</v>
@@ -2517,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>12</v>
@@ -2535,16 +2538,16 @@
         <v>652</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>12</v>
@@ -2570,13 +2573,13 @@
         <v>652</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
@@ -2602,13 +2605,13 @@
         <v>652</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>12</v>
@@ -2634,13 +2637,13 @@
         <v>653</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>12</v>
@@ -2666,13 +2669,13 @@
         <v>652</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,7 +2683,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
@@ -2698,13 +2701,13 @@
         <v>650</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>12</v>
@@ -2730,13 +2733,13 @@
         <v>653</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>69</v>
@@ -2765,7 +2768,7 @@
         <v>60</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>61</v>
@@ -2776,7 +2779,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>69</v>
@@ -2797,7 +2800,7 @@
         <v>60</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>61</v>
@@ -2808,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>12</v>
@@ -2826,13 +2829,13 @@
         <v>650</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,7 +2843,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>12</v>
@@ -2858,13 +2861,13 @@
         <v>653</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>12</v>
@@ -2890,13 +2893,13 @@
         <v>650</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>12</v>
@@ -2922,13 +2925,13 @@
         <v>653</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>69</v>
@@ -2966,7 +2969,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>12</v>
@@ -2984,13 +2987,13 @@
         <v>653</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +3001,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>12</v>
@@ -3016,13 +3019,13 @@
         <v>650</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>12</v>
@@ -3048,7 +3051,7 @@
         <v>653</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>199</v>
@@ -3718,7 +3721,7 @@
         <v>206</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>12</v>
@@ -3750,7 +3753,7 @@
         <v>206</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>12</v>
@@ -3785,7 +3788,7 @@
         <v>206</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>69</v>
@@ -3815,7 +3818,7 @@
         <v>206</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>69</v>
@@ -3845,7 +3848,7 @@
         <v>206</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>69</v>
@@ -3875,7 +3878,7 @@
         <v>206</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>69</v>
@@ -3905,7 +3908,7 @@
         <v>206</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>69</v>
@@ -3935,7 +3938,7 @@
         <v>206</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>69</v>
@@ -3965,7 +3968,7 @@
         <v>206</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>69</v>
@@ -3995,7 +3998,7 @@
         <v>206</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>69</v>
@@ -4025,7 +4028,7 @@
         <v>206</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>69</v>
@@ -4055,7 +4058,7 @@
         <v>206</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>12</v>
@@ -4090,7 +4093,7 @@
         <v>206</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>12</v>
@@ -4125,7 +4128,7 @@
         <v>206</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>12</v>
@@ -4160,7 +4163,7 @@
         <v>206</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>12</v>
@@ -4195,7 +4198,7 @@
         <v>206</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>69</v>
@@ -4225,7 +4228,7 @@
         <v>206</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>69</v>
@@ -4255,7 +4258,7 @@
         <v>206</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>69</v>
@@ -4285,7 +4288,7 @@
         <v>206</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>69</v>
@@ -4315,7 +4318,7 @@
         <v>206</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>69</v>
@@ -4345,7 +4348,7 @@
         <v>206</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>69</v>
@@ -4375,7 +4378,7 @@
         <v>206</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>69</v>
@@ -4405,7 +4408,7 @@
         <v>206</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>69</v>
@@ -4435,7 +4438,7 @@
         <v>206</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>69</v>
@@ -4465,7 +4468,7 @@
         <v>206</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>69</v>
@@ -4495,7 +4498,7 @@
         <v>206</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>69</v>
@@ -4525,7 +4528,7 @@
         <v>206</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>69</v>
@@ -4555,7 +4558,7 @@
         <v>206</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>69</v>
@@ -4585,7 +4588,7 @@
         <v>206</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>69</v>
@@ -5335,7 +5338,7 @@
         <v>278</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>279</v>
@@ -5905,17 +5908,17 @@
       <c r="G151" s="3" t="n">
         <v>652</v>
       </c>
-      <c r="H151" s="3" t="s">
+      <c r="H151" s="7" t="s">
         <v>302</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,7 +5926,7 @@
         <v>256</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>69</v>
@@ -5940,17 +5943,17 @@
       <c r="G152" s="3" t="n">
         <v>652</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>305</v>
+      <c r="H152" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,7 +5961,7 @@
         <v>256</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>69</v>
@@ -5976,16 +5979,16 @@
         <v>652</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,7 +5996,7 @@
         <v>256</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>69</v>
@@ -6010,17 +6013,17 @@
       <c r="G154" s="3" t="n">
         <v>652</v>
       </c>
-      <c r="H154" s="3" t="s">
-        <v>315</v>
+      <c r="H154" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>317</v>
+        <v>228</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6028,7 +6031,7 @@
         <v>256</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>69</v>
@@ -6058,7 +6061,7 @@
         <v>256</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>69</v>
@@ -6088,7 +6091,7 @@
         <v>256</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>69</v>
@@ -6118,7 +6121,7 @@
         <v>256</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>69</v>
@@ -6148,7 +6151,7 @@
         <v>256</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>69</v>
@@ -6178,7 +6181,7 @@
         <v>256</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>69</v>
@@ -6208,7 +6211,7 @@
         <v>256</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>69</v>
@@ -6238,7 +6241,7 @@
         <v>256</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>69</v>
@@ -6259,7 +6262,7 @@
         <v>60</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>61</v>
@@ -6270,7 +6273,7 @@
         <v>256</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>69</v>
@@ -6288,13 +6291,13 @@
         <v>653</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6302,7 +6305,7 @@
         <v>256</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>69</v>
@@ -6323,7 +6326,7 @@
         <v>60</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>61</v>
@@ -6334,7 +6337,7 @@
         <v>256</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>69</v>
@@ -6355,7 +6358,7 @@
         <v>60</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>61</v>
@@ -6366,7 +6369,7 @@
         <v>256</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>69</v>
@@ -6396,7 +6399,7 @@
         <v>256</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>69</v>
